--- a/day1.xlsx
+++ b/day1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROOPATHANGAM R\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROOPATHANGAM R\Documents\GitHub\Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{025839F5-4FEF-4A23-A209-CBE1A8689C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CDE0F5-DF69-4669-9568-FCE3831AAB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EEE7DDC4-2F97-4459-8362-CCE405D5E398}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t xml:space="preserve">Question </t>
   </si>
@@ -51,12 +51,6 @@
     <t>TEST DATA</t>
   </si>
   <si>
-    <t>1) Go to https://studenthostel.neohire.io/                                                                    2) Enter a valid email id                                      3) Enter admin login id - admin                       4) Enter a password - Test@1234                 5)click login button</t>
-  </si>
-  <si>
-    <t>Admin login id : admin password : Test@1234</t>
-  </si>
-  <si>
     <t xml:space="preserve">EXPECTED RESULT </t>
   </si>
   <si>
@@ -78,118 +72,109 @@
     <t>failed</t>
   </si>
   <si>
-    <t xml:space="preserve">1) Go to https://studenthostel.neohire.io/                                                                    2) Enter a valid email id                                      3) Enter admin login id - admin                       4) Enter a password - Test@1234                 5)click login button                                                                       </t>
-  </si>
-  <si>
-    <t>As a admin,  I want to login to my acconut with a valid email id and password so that I access the course section</t>
-  </si>
-  <si>
-    <t>As a admin,I want to login to my acconut with a valid email id and password , so that I can login to the dashboard</t>
-  </si>
-  <si>
-    <t>As a admin, I want to login to my acconut with a valid email id and password , so that I can login to the dashboard</t>
-  </si>
-  <si>
     <t xml:space="preserve">Invalid details            </t>
   </si>
   <si>
-    <t xml:space="preserve">It should goto the admin dashboard      Course menu section should be available with options (add course and manage course)      </t>
-  </si>
-  <si>
-    <t>It goes to the admin dashboard                  The course detail page appears</t>
-  </si>
-  <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>As a admin,  I want to login to my acconut with a valid email id and password so that I access the room section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It should goto the admin dashboard      room menu section should be available with options (add room and manage room)      </t>
-  </si>
-  <si>
-    <t>It goes to the admin dashboard                  The room detail page appears</t>
-  </si>
-  <si>
-    <t>As a admin,  I want to login to my acconut with a valid email id and password so that I access student registration form</t>
-  </si>
-  <si>
-    <t>It should goto the admin dashboard and the admin is able to register student</t>
-  </si>
-  <si>
     <t xml:space="preserve">It goes to the admin dashboard                 The regsitration page appears                 </t>
   </si>
   <si>
-    <t>As a admin,  I want to login to my acconut with a valid email id and password so that I access Manage student's menu</t>
-  </si>
-  <si>
-    <t>It should goto the admin dashboard and the form data should be displayed</t>
-  </si>
-  <si>
     <t>Test_1.1</t>
   </si>
   <si>
-    <t>Test@5.1</t>
-  </si>
-  <si>
-    <t>Test_2.0</t>
-  </si>
-  <si>
     <t>Test_3.1</t>
   </si>
   <si>
-    <t>Test_3.2</t>
-  </si>
-  <si>
     <t>Test_4.1</t>
   </si>
   <si>
-    <t>Test_4.2</t>
-  </si>
-  <si>
-    <t>Test_5.2</t>
-  </si>
-  <si>
     <t>Test_6.1</t>
   </si>
   <si>
-    <t>It goes to the admin dashboard  in which the admin can delete the students record</t>
-  </si>
-  <si>
-    <t>Test_6.2</t>
-  </si>
-  <si>
     <t>Test_7.1</t>
   </si>
   <si>
-    <t>As a admin,  I want to login to my acconut with a valid email id and password so that I can view and manage user access logs</t>
-  </si>
-  <si>
-    <t>It should goto the admin dashboard and the admin can access user access logs details</t>
-  </si>
-  <si>
-    <t>the admin able to view user logged in time and his/her access details to the portal</t>
-  </si>
-  <si>
-    <t>Test_7.2</t>
-  </si>
-  <si>
     <t>Test_8.1</t>
   </si>
   <si>
-    <t>As the student,I want to view the login to the system using user login menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Go to https://studenthostel.neohire.io/                                                                    2) Enter a valid user email id                                      3) Enter user password                                   4) Enter a username                                         5)click login button                                                                                   </t>
-  </si>
-  <si>
-    <t>username :                       userid :                            user password :</t>
-  </si>
-  <si>
-    <t>The user will be navigated to the user dashboard page</t>
-  </si>
-  <si>
-    <t>It goes to the user dashboard</t>
+    <t>As a admin,I want to login to my acconut with a valid email id and password , so that I can manage entire admin dashboard</t>
+  </si>
+  <si>
+    <t>1) Go to https://hospital.neohire.io/                                                                    2) Enter a valid email id                                      3)Enter a valid password                                   4)click login button</t>
+  </si>
+  <si>
+    <t>Admin login id : admin password : Test@12345</t>
+  </si>
+  <si>
+    <t>Test_1.2</t>
+  </si>
+  <si>
+    <t>Test_2.1</t>
+  </si>
+  <si>
+    <t>As a admin,  I want to manage to doctor details</t>
+  </si>
+  <si>
+    <t>As a admin,  I want to manage user details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin logged in with valid credentails.The admin is directed to dashboard.The admin able to add doctor and clicks the button the form is filled and displayed  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the admin able to delete doctor details. </t>
+  </si>
+  <si>
+    <t>Admin logged in with valid credentails.The admin is directed to dashboard.The admin able to click manage users menu.Once admin clicks the delete icon a pop up laret should be displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the admin able to add doctor details. </t>
+  </si>
+  <si>
+    <t>As a admin,  I want to manage login details</t>
+  </si>
+  <si>
+    <t>Admin logged in with valid credentails.The admin is directed to dashboard.The admin able to click manage patient's menu.Once the admin clicks the view icon patient's detail should be displayed.</t>
+  </si>
+  <si>
+    <t>It goes to the admin dashboard                  The admin can update the information</t>
+  </si>
+  <si>
+    <t>As a admin,  I want to look at the appoingtment history</t>
+  </si>
+  <si>
+    <t>Test_5.1</t>
+  </si>
+  <si>
+    <t>Admin logged in with valid credentails.The admin is directed to dashboard.The admin able to click manage appointment menu history. The appointment details are displayed</t>
+  </si>
+  <si>
+    <t>As a admin,  I want to search for inquires received through contact us facility</t>
+  </si>
+  <si>
+    <t>It goes to the admin dashboard                  The admin can see the read and unread queries</t>
+  </si>
+  <si>
+    <t>Admin logged in with valid credentails.The admin is directed to dashboard.The admin finds contact us queries menu with read and unread queries divisions.</t>
+  </si>
+  <si>
+    <t>As a admin,  I want to search for session logs related to doctor</t>
+  </si>
+  <si>
+    <t>Admin logged in with valid credentails.The admin is able to see session log information of doctors</t>
+  </si>
+  <si>
+    <t>As a admin,  I want to search for session logs related to users</t>
+  </si>
+  <si>
+    <t>Admin logged in with valid credentails.The admin is able to see session log information of users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It goes to the admin dashboard                 The session log page of users appears              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It goes to the admin dashboard                 The session log page of doctors appears                 </t>
   </si>
 </sst>
 </file>
@@ -564,7 +549,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,13 +579,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -611,338 +596,266 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="177.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="169.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="168" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="195.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="170.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="171.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
@@ -955,7 +868,7 @@
     <hyperlink ref="B6" r:id="rId4" display="Test@3.2" xr:uid="{BA6D531A-BB36-4D0B-82D9-C80A0AF6B301}"/>
     <hyperlink ref="B7" r:id="rId5" display="Test@4.1" xr:uid="{2B878EAF-5ECD-4A11-8CE9-4A489F3EA9F7}"/>
     <hyperlink ref="B8" r:id="rId6" display="Test@4.2" xr:uid="{A46D01C6-DD8B-4681-8C4B-E476B1198B66}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{7D149A9B-08D4-4977-961F-93F7AB9304BB}"/>
+    <hyperlink ref="B9" r:id="rId7" display="Test@5.1" xr:uid="{7D149A9B-08D4-4977-961F-93F7AB9304BB}"/>
     <hyperlink ref="B10" r:id="rId8" display="Test@5.2" xr:uid="{6A1417EA-79AB-47F3-BE5D-3FE9D2E2C4F6}"/>
     <hyperlink ref="B11" r:id="rId9" display="Test@6.1" xr:uid="{85B7302C-34CA-4F9A-A5A9-5044B0B7D5ED}"/>
   </hyperlinks>
